--- a/client/src/Excel/Data/Countries/jo.xlsx
+++ b/client/src/Excel/Data/Countries/jo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75524A3-7336-4CD5-AB78-1CD688C138D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E70C195-1E24-4AA0-878F-29DC74D32225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,9 +494,6 @@
     <t>labor-day-jordan.webp</t>
   </si>
   <si>
-    <t>كم_باقي_على_نهاية_العام_الدراسي_للمدارس_الحكومية_في_الأردن</t>
-  </si>
-  <si>
     <t>2025-06-25T00:00:00</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
     <t>نهاية العام الدراسي، كم باقي، موعد نهاية العام الدراسي، العد التنازلي، الاحتفالات، الإنجازات، التعليم، الطلاب، المدارس الحكومية</t>
   </si>
   <si>
-    <t>كم_باقي_على_نهاية_العام_الدراسي_للمدارس_الخاصه_في_الأردن</t>
-  </si>
-  <si>
     <t>2025-06-19T00:00:00</t>
   </si>
   <si>
@@ -774,6 +768,12 @@
   </si>
   <si>
     <t>بدء المدرسة في الأردن 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_نهاية_العام_الدراسي_في_الأردن</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_نهاية_العام_الدراسي_للخاص_في_الأردن</t>
   </si>
 </sst>
 </file>
@@ -1179,16 +1179,16 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1250,12 +1250,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -1270,7 +1270,7 @@
         <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1300,7 +1300,7 @@
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1312,12 +1312,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1332,7 +1332,7 @@
         <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -1362,7 +1362,7 @@
         <v>54</v>
       </c>
       <c r="Q3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
@@ -1374,12 +1374,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1394,7 +1394,7 @@
         <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -1424,7 +1424,7 @@
         <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R4" t="b">
         <v>1</v>
@@ -1436,12 +1436,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>
@@ -1456,7 +1456,7 @@
         <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -1486,7 +1486,7 @@
         <v>61</v>
       </c>
       <c r="Q5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
@@ -1498,12 +1498,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -1518,7 +1518,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -1548,7 +1548,7 @@
         <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
@@ -1560,12 +1560,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -1580,7 +1580,7 @@
         <v>105</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H7" t="s">
         <v>33</v>
@@ -1610,7 +1610,7 @@
         <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R7" t="b">
         <v>1</v>
@@ -1622,12 +1622,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -1642,7 +1642,7 @@
         <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
@@ -1672,7 +1672,7 @@
         <v>70</v>
       </c>
       <c r="Q8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
@@ -1684,12 +1684,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>77</v>
@@ -1704,7 +1704,7 @@
         <v>112</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -1734,7 +1734,7 @@
         <v>74</v>
       </c>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R9" t="b">
         <v>1</v>
@@ -1746,12 +1746,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -1766,7 +1766,7 @@
         <v>115</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
@@ -1796,7 +1796,7 @@
         <v>120</v>
       </c>
       <c r="Q10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
@@ -1808,15 +1808,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1">
         <v>45593</v>
@@ -1825,60 +1825,60 @@
         <v>2025</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="Q11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1">
         <v>45593</v>
@@ -1887,60 +1887,60 @@
         <v>2025</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="J12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="Q12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="1">
         <v>45593</v>
@@ -1949,60 +1949,60 @@
         <v>2025</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="Q13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="1">
         <v>45593</v>
@@ -2011,60 +2011,60 @@
         <v>2025</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="Q14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R14" t="b">
         <v>1</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D15" s="1">
         <v>45593</v>
@@ -2073,60 +2073,60 @@
         <v>2025</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="Q15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1">
         <v>45593</v>
@@ -2135,52 +2135,52 @@
         <v>2025</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="O16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="Q16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P17" s="2"/>
     </row>
   </sheetData>

--- a/client/src/Excel/Data/Countries/jo.xlsx
+++ b/client/src/Excel/Data/Countries/jo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E70C195-1E24-4AA0-878F-29DC74D32225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CB90DA-E1DC-4EBB-B2DB-1D1AB3B0F805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="1950" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1179,16 +1179,16 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="17.796875" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E2">
         <v>2025</v>
@@ -1312,7 +1312,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E3">
         <v>2025</v>
@@ -1374,7 +1374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -1436,7 +1436,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>124</v>
       </c>
       <c r="D5" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E5">
         <v>2025</v>
@@ -1498,7 +1498,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E6">
         <v>2025</v>
@@ -1560,7 +1560,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E7">
         <v>2025</v>
@@ -1622,7 +1622,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E8">
         <v>2025</v>
@@ -1684,7 +1684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E9">
         <v>2025</v>
@@ -1746,7 +1746,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E10">
         <v>2025</v>
@@ -1808,7 +1808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>176</v>
       </c>
       <c r="D11" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E11" s="2">
         <v>2025</v>
@@ -1870,7 +1870,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>176</v>
       </c>
       <c r="D12" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E12" s="2">
         <v>2025</v>
@@ -1932,7 +1932,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>145</v>
       </c>
       <c r="D13" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E13" s="2">
         <v>2025</v>
@@ -1994,7 +1994,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>177</v>
       </c>
       <c r="D14" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E14" s="2">
         <v>2025</v>
@@ -2056,7 +2056,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>176</v>
       </c>
       <c r="D15" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E15" s="2">
         <v>2025</v>
@@ -2118,7 +2118,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>176</v>
       </c>
       <c r="D16" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E16" s="2">
         <v>2025</v>
@@ -2180,7 +2180,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="16:16" x14ac:dyDescent="0.6">
       <c r="P17" s="2"/>
     </row>
   </sheetData>
